--- a/InitialResultsv2.xlsx
+++ b/InitialResultsv2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b75b1c6a55d49cb/College/JuniorYear/CS5140/Grade Data Mining Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2895182A-7C7B-46C6-B047-613BEA9930D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{2895182A-7C7B-46C6-B047-613BEA9930D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A85F0232-B279-4E71-8B02-8B74F8FEC351}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5130" windowWidth="26205" windowHeight="15870" activeTab="1" xr2:uid="{C2498C7F-B6B4-44DE-9D2A-2A6F06A73C51}"/>
+    <workbookView xWindow="5535" yWindow="2850" windowWidth="26100" windowHeight="16545" xr2:uid="{C2498C7F-B6B4-44DE-9D2A-2A6F06A73C51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,212 +32,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="179">
   <si>
     <t>CourseNum</t>
   </si>
   <si>
-    <t>Integral</t>
-  </si>
-  <si>
-    <t>AvgVec</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.5990990990990991, 0.0990990990990991, 0.08558558558558559, 0.04954954954954955, 0.11711711711711711, 0.04954954954954955, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.449438202247191, 0.26217228464419473, 0.15355805243445692, 0.033707865168539325, 0.10112359550561797, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.3780487804878049, 0.25691056910569104, 0.11626016260162601, 0.05447154471544716, 0.15609756097560976, 0.038211382113821135, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.3316546762589928, 0.33525179856115106, 0.17338129496402876, 0.05683453237410072, 0.09640287769784173, 0.006474820143884892, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.2999369880277253, 0.38311279143037175, 0.14933837429111532, 0.05923125393824827, 0.09703843730308759, 0.011342155009451797, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.9629629629629629, 0.037037037037037035, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.3271186440677966, 0.46440677966101696, 0.15254237288135594, 0.011864406779661017, 0.04406779661016949, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.47776183644189385, 0.3357245337159254, 0.13199426111908177, 0.020086083213773313, 0.028694404591104734, 0.005738880918220947, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.35709090909090907, 0.4254545454545455, 0.13163636363636363, 0.02327272727272727, 0.05236363636363636, 0.010181818181818183, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.9811320754716981, 0.018867924528301886, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.39695340501792115, 0.3593189964157706, 0.15412186379928317, 0.05465949820788531, 0.03136200716845878, 0.0035842293906810036, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.9655172413793104, 0.017241379310344827, 0.0, 0.0, 0.017241379310344827, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.7713567839195979, 0.21105527638190955, 0.01507537688442211, 0.0, 0.002512562814070352, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [0, 0, 0, 0, 0, 0, 0]</t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.5797101449275363, 0.2753623188405797, 0.08695652173913043, 0.0, 0.028985507246376812, 0.028985507246376812, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.4262295081967213, 0.3401639344262295, 0.13729508196721313, 0.03381147540983607, 0.055327868852459015, 0.007172131147540984, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.7682539682539683, 0.13333333333333333, 0.0761904761904762, 0.0031746031746031746, 0.012698412698412698, 0.006349206349206349, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.9354838709677419, 0.06451612903225806, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.7142857142857143, 0.2857142857142857, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.4864864864864865, 0.24324324324324326, 0.0990990990990991, 0.06306306306306306, 0.07207207207207207, 0.036036036036036036, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.5714285714285714, 0.2857142857142857, 0.03571428571428571, 0.0, 0.10714285714285714, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.696969696969697, 0.25757575757575757, 0.030303030303030304, 0.0, 0.0, 0.015151515151515152, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.7777777777777778, 0.17777777777777778, 0.022222222222222223, 0.0, 0.022222222222222223, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
   </si>
   <si>
     <t xml:space="preserve"> [0.75, 0.25, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.4376391982182628, 0.3040089086859688, 0.11247216035634744, 0.051224944320712694, 0.0779510022271715, 0.01670378619153675, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.6716247139588101, 0.2700228832951945, 0.03775743707093822, 0.009153318077803204, 0.011441647597254004, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.45454545454545453, 0.4805194805194805, 0.03896103896103896, 0.0, 0.025974025974025976, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.47619047619047616, 0.30952380952380953, 0.09523809523809523, 0.023809523809523808, 0.09523809523809523, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.45454545454545453, 0.4772727272727273, 0.06818181818181818, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.5056818181818182, 0.36363636363636365, 0.10795454545454546, 0.011363636363636364, 0.011363636363636364, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.76875, 0.09375, 0.04375, 0.0125, 0.025, 0.05625, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.7894736842105263, 0.21052631578947367, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.28741092636579574, 0.4691211401425178, 0.16983372921615203, 0.030878859857482184, 0.0332541567695962, 0.009501187648456057, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.689873417721519, 0.310126582278481, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.4198895027624309, 0.23756906077348067, 0.16574585635359115, 0.06077348066298342, 0.10497237569060773, 0.011049723756906077, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.6125, 0.30625, 0.05625, 0.00625, 0.01875, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.6206896551724138, 0.20689655172413793, 0.06896551724137931, 0.0, 0.10344827586206896, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.5454545454545454, 0.43636363636363634, 0.01818181818181818, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.7894736842105263, 0.0, 0.05263157894736842, 0.05263157894736842, 0.0, 0.10526315789473684, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.35714285714285715, 0.3333333333333333, 0.17857142857142858, 0.03571428571428571, 0.047619047619047616, 0.047619047619047616, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.6966580976863753, 0.19023136246786632, 0.061696658097686374, 0.002570694087403599, 0.02570694087403599, 0.02313624678663239, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.8571428571428571, 0.12244897959183673, 0.0, 0.0, 0.02040816326530612, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.5, 0.19642857142857142, 0.16071428571428573, 0.017857142857142856, 0.03571428571428571, 0.08928571428571429, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.717948717948718, 0.28205128205128205, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.8, 0.13333333333333333, 0.06666666666666667, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.2230769230769231, 0.34615384615384615, 0.16153846153846155, 0.06538461538461539, 0.12692307692307692, 0.07692307692307693, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.24242424242424243, 0.3939393939393939, 0.19696969696969696, 0.09848484848484848, 0.06818181818181818, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.5777777777777777, 0.12222222222222222, 0.1111111111111111, 0.07777777777777778, 0.1111111111111111, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.9577464788732394, 0.028169014084507043, 0.007042253521126761, 0.007042253521126761, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.4976958525345622, 0.3686635944700461, 0.059907834101382486, 0.013824884792626729, 0.03225806451612903, 0.027649769585253458, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.2576530612244898, 0.41581632653061223, 0.23979591836734693, 0.02295918367346939, 0.03316326530612245, 0.030612244897959183, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.8181818181818182, 0.09090909090909091, 0.09090909090909091, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.6442307692307693, 0.3173076923076923, 0.028846153846153848, 0.0, 0.009615384615384616, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.4444444444444444, 0.45185185185185184, 0.08518518518518518, 0.007407407407407408, 0.011111111111111112, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.5652173913043478, 0.2028985507246377, 0.11594202898550725, 0.014492753623188406, 0.028985507246376812, 0.07246376811594203, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.48254620123203285, 0.43121149897330596, 0.059548254620123205, 0.01642710472279261, 0.004106776180698152, 0.006160164271047228, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.8888888888888888, 0.1111111111111111, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.8717948717948718, 0.10256410256410256, 0.02564102564102564, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.7083333333333334, 0.2916666666666667, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.5769230769230769, 0.23076923076923078, 0.11538461538461539, 0.0, 0.07692307692307693, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.4, 0.4444444444444444, 0.1111111111111111, 0.0, 0.044444444444444446, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.45454545454545453, 0.45454545454545453, 0.09090909090909091, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.5128205128205128, 0.3333333333333333, 0.07692307692307693, 0.07692307692307693, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.4782608695652174, 0.43478260869565216, 0.08695652173913043, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t>Instructor</t>
   </si>
   <si>
@@ -247,9 +55,6 @@
     <t xml:space="preserve">BHASKARA, A. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.7, 0.15, 0.05, 0.0, 0.1, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bojnordi, M. </t>
   </si>
   <si>
@@ -259,78 +64,45 @@
     <t xml:space="preserve">BRUNVAND, E. L. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.7704918032786885, 0.1885245901639344, 0.02459016393442623, 0.0, 0.01639344262295082, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cardona-Rivera, R. </t>
   </si>
   <si>
     <t xml:space="preserve">COHEN, E. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.34097421203438394, 0.2521489971346705, 0.19197707736389685, 0.08595988538681948, 0.12893982808022922, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">DENNING, T. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.6091954022988506, 0.3103448275862069, 0.05747126436781609, 0.011494252873563218, 0.011494252873563218, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">FLATT, M. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.5449101796407185, 0.25299401197604793, 0.11526946107784432, 0.02245508982035928, 0.03293413173652695, 0.03143712574850299, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">GOPALAKRISHNAN, G. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.362, 0.396, 0.112, 0.038, 0.092, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">HALL, M. W. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.5591836734693878, 0.2693877551020408, 0.11020408163265306, 0.012244897959183673, 0.04081632653061224, 0.00816326530612245, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">HANSEN, C. D. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.43884892086330934, 0.3057553956834532, 0.1474820143884892, 0.02877697841726619, 0.0539568345323741, 0.025179856115107913, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">HENDERSON, T. C. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.6065573770491803, 0.3344262295081967, 0.036065573770491806, 0.0, 0.022950819672131147, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hermans, T. </t>
   </si>
   <si>
     <t xml:space="preserve">HOLLERBACH, J. M. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.7528089887640449, 0.14606741573033707, 0.0449438202247191, 0.011235955056179775, 0.0449438202247191, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">JENSEN, P. A. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.5304182509505704, 0.2718631178707224, 0.09759188846641319, 0.053865652724968315, 0.04055766793409379, 0.005703422053231939, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">JOHNSON, C. R. </t>
   </si>
   <si>
     <t xml:space="preserve">JOHNSON, D. E. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.4860097323600973, 0.2791970802919708, 0.09854014598540146, 0.027980535279805353, 0.08333333333333333, 0.024939172749391728, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jones, B. </t>
   </si>
   <si>
@@ -340,118 +112,463 @@
     <t xml:space="preserve">KAVAN, L. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.9068627450980392, 0.06372549019607843, 0.0196078431372549, 0.0, 0.0, 0.00980392156862745, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kessler, B. </t>
   </si>
   <si>
     <t xml:space="preserve">KIRBY II, R. M. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.3125, 0.484375, 0.0859375, 0.0, 0.078125, 0.0390625, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">KOPTA, D. M. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.4169976171564734, 0.37887212073073867, 0.11119936457505956, 0.03415409054805401, 0.051628276409849086, 0.007148530579825258, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">LI, F. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.47804878048780486, 0.43902439024390244, 0.05609756097560976, 0.01707317073170732, 0.0024390243902439024, 0.007317073170731708, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">PARKER, D. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.2868525896414343, 0.3494593056346044, 0.15708594194649972, 0.07285145133750712, 0.12692088787706318, 0.006829823562891292, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">PHILLIPS, J. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.6147540983606558, 0.3114754098360656, 0.05737704918032787, 0.004098360655737705, 0.012295081967213115, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ramalingam, S. </t>
   </si>
   <si>
     <t xml:space="preserve">REGEHR, J. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.3017241379310345, 0.5517241379310345, 0.12931034482758622, 0.008620689655172414, 0.008620689655172414, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">RILOFF, E. M. </t>
   </si>
   <si>
     <t xml:space="preserve">SRIKUMAR, V. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.509090909090909, 0.3696969696969697, 0.10303030303030303, 0.012121212121212121, 0.006060606060606061, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">DE ST GERMAIN, H. J. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.5199686765857479, 0.34690681284259983, 0.06812842599843383, 0.01096319498825372, 0.03915426781519186, 0.014878621769772905, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">STUTSMAN, R. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.5714285714285714, 0.36024844720496896, 0.049689440993788817, 0.006211180124223602, 0.012422360248447204, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">SUNDAR, H. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.35714285714285715, 0.5255102040816326, 0.05102040816326531, 0.0, 0.04081632653061224, 0.025510204081632654, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">VAN DER MERWE, J. E. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.4438202247191011, 0.31273408239700373, 0.17790262172284643, 0.018726591760299626, 0.024344569288389514, 0.02247191011235955, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">VENKATASUBRAMANIAN, S. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.76, 0.16, 0.04, 0.0, 0.04, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">WHITAKER, R. T. </t>
   </si>
   <si>
     <t xml:space="preserve">WIESE, J. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.6170212765957447, 0.3723404255319149, 0.010638297872340425, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Young, R. </t>
   </si>
   <si>
     <t xml:space="preserve">YUKSEL, C. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.43243243243243246, 0.31756756756756754, 0.20945945945945946, 0.04054054054054054, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZACHARY, J. L. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.3478581979320532, 0.32791728212703103, 0.1532496307237814, 0.03766617429837518, 0.1085672082717873, 0.024741506646971934, 0.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZHE, S. </t>
   </si>
   <si>
-    <t xml:space="preserve"> [0.7833333333333333, 0.15, 0.03333333333333333, 0.0, 0.03333333333333333, 0.0, 0.0]</t>
+    <t>GPA</t>
+  </si>
+  <si>
+    <t>Mean Feedback</t>
+  </si>
+  <si>
+    <t>Grade PDF</t>
+  </si>
+  <si>
+    <t>Feedback PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.7, 0.15, 0.05, 0.0, 0.1, 0.0, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0, 0, 0, 0, 0, 0, 0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.362, 0.396, 0.112, 0.038, 0.092, 0.0, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.76, 0.16, 0.04, 0.0, 0.04, 0.0, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.498, 0.369, 0.06, 0.014, 0.032, 0.028, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.435, 0.308, 0.112, 0.06, 0.043, 0.043]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.47, 0.299, 0.116, 0.042, 0.029, 0.044]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.77, 0.189, 0.025, 0.0, 0.016, 0.0, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.615, 0.302, 0.068, 0.012, 0.0, 0.004]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.341, 0.252, 0.192, 0.086, 0.129, 0.0, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.261, 0.259, 0.154, 0.093, 0.08, 0.153]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.609, 0.31, 0.057, 0.011, 0.011, 0.0, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.416, 0.293, 0.125, 0.066, 0.059, 0.041]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.545, 0.253, 0.115, 0.022, 0.033, 0.031, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.787, 0.169, 0.025, 0.003, 0.001, 0.014]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.287, 0.288, 0.171, 0.084, 0.07, 0.1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.559, 0.269, 0.11, 0.012, 0.041, 0.008, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.277, 0.219, 0.145, 0.094, 0.106, 0.158]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.439, 0.306, 0.147, 0.029, 0.054, 0.025, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.417, 0.296, 0.146, 0.065, 0.032, 0.045]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.607, 0.334, 0.036, 0.0, 0.023, 0.0, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.524, 0.277, 0.098, 0.047, 0.032, 0.021]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.753, 0.146, 0.045, 0.011, 0.045, 0.0, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.452, 0.339, 0.103, 0.031, 0.039, 0.036]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.53, 0.272, 0.098, 0.054, 0.041, 0.006, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.658, 0.241, 0.055, 0.025, 0.007, 0.014]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.486, 0.279, 0.099, 0.028, 0.083, 0.025, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.555, 0.334, 0.069, 0.012, 0.014, 0.016]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.697, 0.258, 0.03, 0.0, 0.0, 0.015, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.648, 0.293, 0.031, 0.01, 0.009, 0.009]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.907, 0.064, 0.02, 0.0, 0.0, 0.01, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.641, 0.29, 0.059, 0.008, 0.003, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.312, 0.484, 0.086, 0.0, 0.078, 0.039, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.272, 0.344, 0.163, 0.086, 0.068, 0.067]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.417, 0.379, 0.111, 0.034, 0.052, 0.007, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.662, 0.268, 0.052, 0.009, 0.002, 0.007]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.478, 0.439, 0.056, 0.017, 0.002, 0.007, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.287, 0.349, 0.157, 0.073, 0.127, 0.007, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.551, 0.262, 0.084, 0.026, 0.029, 0.048]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.615, 0.311, 0.057, 0.004, 0.012, 0.0, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.612, 0.274, 0.064, 0.015, 0.008, 0.027]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.302, 0.552, 0.129, 0.009, 0.009, 0.0, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.643, 0.273, 0.065, 0.011, 0.003, 0.006]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.455, 0.477, 0.068, 0.0, 0.0, 0.0, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.623, 0.28, 0.063, 0.025, 0.007, 0.002]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.509, 0.37, 0.103, 0.012, 0.006, 0.0, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.67, 0.246, 0.037, 0.014, 0.008, 0.025]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.52, 0.347, 0.068, 0.011, 0.039, 0.015, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.477, 0.348, 0.1, 0.03, 0.02, 0.026]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.571, 0.36, 0.05, 0.006, 0.012, 0.0, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.815, 0.152, 0.017, 0.001, 0.0, 0.015]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.357, 0.526, 0.051, 0.0, 0.041, 0.026, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.47, 0.283, 0.106, 0.053, 0.063, 0.024]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.444, 0.313, 0.178, 0.019, 0.024, 0.022, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.626, 0.258, 0.068, 0.029, 0.008, 0.011]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.6, 0.252, 0.09, 0.025, 0.017, 0.016]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.737, 0.215, 0.009, 0.0, 0.0, 0.039]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.617, 0.372, 0.011, 0.0, 0.0, 0.0, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.33, 0.336, 0.118, 0.062, 0.053, 0.1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.432, 0.318, 0.209, 0.041, 0.0, 0.0, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.474, 0.26, 0.141, 0.061, 0.039, 0.025]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.348, 0.328, 0.153, 0.038, 0.109, 0.025, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.644, 0.263, 0.057, 0.013, 0.012, 0.012]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.783, 0.15, 0.033, 0.0, 0.033, 0.0, 0.0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.599, 0.099, 0.086, 0.05, 0.117, 0.05, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.449, 0.262, 0.154, 0.034, 0.101, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.378, 0.257, 0.116, 0.054, 0.156, 0.038, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.332, 0.335, 0.173, 0.057, 0.096, 0.006, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.3, 0.383, 0.149, 0.059, 0.097, 0.011, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.963, 0.037, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.327, 0.464, 0.153, 0.012, 0.044, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.478, 0.336, 0.132, 0.02, 0.029, 0.006, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.357, 0.425, 0.132, 0.023, 0.052, 0.01, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.981, 0.019, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.397, 0.359, 0.154, 0.055, 0.031, 0.004, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.966, 0.017, 0.0, 0.0, 0.017, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.771, 0.211, 0.015, 0.0, 0.003, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.58, 0.275, 0.087, 0.0, 0.029, 0.029, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.426, 0.34, 0.137, 0.034, 0.055, 0.007, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.768, 0.133, 0.076, 0.003, 0.013, 0.006, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.935, 0.065, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.714, 0.286, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.486, 0.243, 0.099, 0.063, 0.072, 0.036, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.571, 0.286, 0.036, 0.0, 0.107, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.697, 0.258, 0.03, 0.0, 0.0, 0.015, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.778, 0.178, 0.022, 0.0, 0.022, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.438, 0.304, 0.112, 0.051, 0.078, 0.017, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.672, 0.27, 0.038, 0.009, 0.011, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.455, 0.481, 0.039, 0.0, 0.026, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.476, 0.31, 0.095, 0.024, 0.095, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.455, 0.477, 0.068, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.506, 0.364, 0.108, 0.011, 0.011, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.769, 0.094, 0.044, 0.013, 0.025, 0.056, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.789, 0.211, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.287, 0.469, 0.17, 0.031, 0.033, 0.01, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.69, 0.31, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.42, 0.238, 0.166, 0.061, 0.105, 0.011, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.613, 0.306, 0.056, 0.006, 0.019, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.621, 0.207, 0.069, 0.0, 0.103, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.545, 0.436, 0.018, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.789, 0.0, 0.053, 0.053, 0.0, 0.105, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.357, 0.333, 0.179, 0.036, 0.048, 0.048, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.697, 0.19, 0.062, 0.003, 0.026, 0.023, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.857, 0.122, 0.0, 0.0, 0.02, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.5, 0.196, 0.161, 0.018, 0.036, 0.089, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.718, 0.282, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.8, 0.133, 0.067, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.223, 0.346, 0.162, 0.065, 0.127, 0.077, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.242, 0.394, 0.197, 0.098, 0.068, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.578, 0.122, 0.111, 0.078, 0.111, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.958, 0.028, 0.007, 0.007, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.498, 0.369, 0.06, 0.014, 0.032, 0.028, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.258, 0.416, 0.24, 0.023, 0.033, 0.031, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.818, 0.091, 0.091, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.644, 0.317, 0.029, 0.0, 0.01, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.444, 0.452, 0.085, 0.007, 0.011, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.565, 0.203, 0.116, 0.014, 0.029, 0.072, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.483, 0.431, 0.06, 0.016, 0.004, 0.006, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.889, 0.111, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.872, 0.103, 0.026, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.708, 0.292, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.577, 0.231, 0.115, 0.0, 0.077, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.4, 0.444, 0.111, 0.0, 0.044, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.455, 0.455, 0.091, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.513, 0.333, 0.077, 0.077, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.478, 0.435, 0.087, 0.0, 0.0, 0.0, 0.0]</t>
   </si>
 </sst>
 </file>
@@ -805,15 +922,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFCC70A-CE65-4693-B181-9EEFBEA53E63}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="127.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -821,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -835,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -846,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -857,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -868,7 +985,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -879,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -890,7 +1007,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -901,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -909,10 +1026,10 @@
         <v>3710</v>
       </c>
       <c r="B9">
-        <v>3.9811320754716899</v>
+        <v>3.98</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -920,32 +1037,32 @@
         <v>3020</v>
       </c>
       <c r="B10">
-        <v>3.9629629629629601</v>
+        <v>3.96</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3011</v>
+        <v>4710</v>
       </c>
       <c r="B11">
-        <v>3.9366197183098501</v>
+        <v>3.94</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4710</v>
+        <v>3011</v>
       </c>
       <c r="B12">
-        <v>3.9354838709677402</v>
+        <v>3.94</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -953,10 +1070,10 @@
         <v>3991</v>
       </c>
       <c r="B13">
-        <v>3.91379310344827</v>
+        <v>3.91</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -964,10 +1081,10 @@
         <v>5610</v>
       </c>
       <c r="B14">
-        <v>3.88888888888888</v>
+        <v>3.89</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -975,10 +1092,10 @@
         <v>5780</v>
       </c>
       <c r="B15">
-        <v>3.84615384615384</v>
+        <v>3.85</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -986,10 +1103,10 @@
         <v>3190</v>
       </c>
       <c r="B16">
-        <v>3.7959183673469301</v>
+        <v>3.8</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -997,43 +1114,43 @@
         <v>5959</v>
       </c>
       <c r="B17">
-        <v>3.7894736842105199</v>
+        <v>3.79</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5962</v>
+        <v>4000</v>
       </c>
       <c r="B18">
         <v>3.75</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5650</v>
+        <v>5962</v>
       </c>
       <c r="B19">
         <v>3.75</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4000</v>
+        <v>5650</v>
       </c>
       <c r="B20">
-        <v>3.74874371859296</v>
+        <v>3.75</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1041,10 +1158,10 @@
         <v>5955</v>
       </c>
       <c r="B21">
-        <v>3.7333333333333298</v>
+        <v>3.73</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1052,10 +1169,10 @@
         <v>5100</v>
       </c>
       <c r="B22">
-        <v>3.72727272727272</v>
+        <v>3.73</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1063,10 +1180,10 @@
         <v>3540</v>
       </c>
       <c r="B23">
-        <v>3.7179487179487101</v>
+        <v>3.72</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1074,10 +1191,10 @@
         <v>4960</v>
       </c>
       <c r="B24">
-        <v>3.71428571428571</v>
+        <v>3.71</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1085,10 +1202,10 @@
         <v>5965</v>
       </c>
       <c r="B25">
-        <v>3.71428571428571</v>
+        <v>3.71</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1096,32 +1213,32 @@
         <v>5789</v>
       </c>
       <c r="B26">
-        <v>3.7083333333333299</v>
+        <v>3.71</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>4500</v>
+        <v>5630</v>
       </c>
       <c r="B27">
-        <v>3.6898734177215098</v>
+        <v>3.69</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>5630</v>
+        <v>4500</v>
       </c>
       <c r="B28">
-        <v>3.6888888888888798</v>
+        <v>3.69</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1129,10 +1246,10 @@
         <v>4600</v>
       </c>
       <c r="B29">
-        <v>3.6285714285714201</v>
+        <v>3.63</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1140,10 +1257,10 @@
         <v>5490</v>
       </c>
       <c r="B30">
-        <v>3.6212121212121202</v>
+        <v>3.62</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1151,10 +1268,10 @@
         <v>5140</v>
       </c>
       <c r="B31">
-        <v>3.5865384615384599</v>
+        <v>3.59</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1162,10 +1279,10 @@
         <v>3505</v>
       </c>
       <c r="B32">
-        <v>3.5812356979405</v>
+        <v>3.58</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1173,10 +1290,10 @@
         <v>5540</v>
       </c>
       <c r="B33">
-        <v>3.5272727272727198</v>
+        <v>3.53</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1184,10 +1301,10 @@
         <v>4964</v>
       </c>
       <c r="B34">
-        <v>3.4874999999999998</v>
+        <v>3.49</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1195,10 +1312,10 @@
         <v>4540</v>
       </c>
       <c r="B35">
-        <v>3.4832904884318698</v>
+        <v>3.48</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1206,76 +1323,76 @@
         <v>5510</v>
       </c>
       <c r="B36">
-        <v>3.4562499999999998</v>
+        <v>3.46</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>4640</v>
+        <v>5340</v>
       </c>
       <c r="B37">
-        <v>3.3913043478260798</v>
+        <v>3.39</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>5340</v>
+        <v>4640</v>
       </c>
       <c r="B38">
-        <v>3.38636363636363</v>
+        <v>3.39</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>5320</v>
+        <v>5530</v>
       </c>
       <c r="B39">
-        <v>3.3636363636363602</v>
+        <v>3.36</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>5530</v>
+        <v>5320</v>
       </c>
       <c r="B40">
-        <v>3.3593429158110801</v>
+        <v>3.36</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>5350</v>
+        <v>4300</v>
       </c>
       <c r="B41">
-        <v>3.3409090909090899</v>
+        <v>3.34</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>4300</v>
+        <v>5350</v>
       </c>
       <c r="B42">
-        <v>3.33766233766233</v>
+        <v>3.34</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1283,10 +1400,10 @@
         <v>4230</v>
       </c>
       <c r="B43">
-        <v>3.3188405797101401</v>
+        <v>3.32</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1294,10 +1411,10 @@
         <v>5963</v>
       </c>
       <c r="B44">
-        <v>3.3157894736842102</v>
+        <v>3.32</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1305,10 +1422,10 @@
         <v>5460</v>
       </c>
       <c r="B45">
-        <v>3.31111111111111</v>
+        <v>3.31</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1316,10 +1433,10 @@
         <v>4440</v>
       </c>
       <c r="B46">
-        <v>3.2820512820512802</v>
+        <v>3.28</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1327,32 +1444,32 @@
         <v>5150</v>
       </c>
       <c r="B47">
-        <v>3.2413793103448199</v>
+        <v>3.24</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2050</v>
+        <v>3200</v>
       </c>
       <c r="B48">
-        <v>3.2307692307692299</v>
+        <v>3.23</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>3200</v>
+        <v>2050</v>
       </c>
       <c r="B49">
-        <v>3.23041474654377</v>
+        <v>3.23</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1360,10 +1477,10 @@
         <v>5300</v>
       </c>
       <c r="B50">
-        <v>3.21428571428571</v>
+        <v>3.21</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1371,10 +1488,10 @@
         <v>3130</v>
       </c>
       <c r="B51">
-        <v>3.2022955523672798</v>
+        <v>3.2</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1382,10 +1499,10 @@
         <v>3700</v>
       </c>
       <c r="B52">
-        <v>3.1555555555555501</v>
+        <v>3.16</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1393,10 +1510,10 @@
         <v>5470</v>
       </c>
       <c r="B53">
-        <v>3.1159420289855002</v>
+        <v>3.12</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1404,32 +1521,32 @@
         <v>5310</v>
       </c>
       <c r="B54">
-        <v>3.0476190476190399</v>
+        <v>3.05</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>4400</v>
+        <v>3810</v>
       </c>
       <c r="B55">
-        <v>3.0338114754098302</v>
+        <v>3.03</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>3810</v>
+        <v>4400</v>
       </c>
       <c r="B56">
-        <v>3.0286738351254399</v>
+        <v>3.03</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1437,10 +1554,10 @@
         <v>3100</v>
       </c>
       <c r="B57">
-        <v>3.0186440677966102</v>
+        <v>3.02</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1448,10 +1565,10 @@
         <v>3500</v>
       </c>
       <c r="B58">
-        <v>2.9912727272727202</v>
+        <v>2.99</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1459,43 +1576,43 @@
         <v>1060</v>
       </c>
       <c r="B59">
-        <v>2.9777777777777699</v>
+        <v>2.98</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1030</v>
+        <v>4962</v>
       </c>
       <c r="B60">
-        <v>2.9387527839643601</v>
+        <v>2.94</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>4962</v>
+        <v>1030</v>
       </c>
       <c r="B61">
-        <v>2.93693693693693</v>
+        <v>2.94</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>3520</v>
+        <v>1400</v>
       </c>
       <c r="B62">
-        <v>2.9285714285714199</v>
+        <v>2.93</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1503,21 +1620,21 @@
         <v>4150</v>
       </c>
       <c r="B63">
-        <v>2.92755344418052</v>
+        <v>2.93</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1400</v>
+        <v>3520</v>
       </c>
       <c r="B64">
-        <v>2.9250936329588</v>
+        <v>2.93</v>
       </c>
       <c r="C64" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1525,10 +1642,10 @@
         <v>1040</v>
       </c>
       <c r="B65">
-        <v>2.9144144144144102</v>
+        <v>2.91</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1536,10 +1653,10 @@
         <v>1960</v>
       </c>
       <c r="B66">
-        <v>2.8214285714285698</v>
+        <v>2.82</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1547,10 +1664,10 @@
         <v>4530</v>
       </c>
       <c r="B67">
-        <v>2.7845303867403302</v>
+        <v>2.78</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1558,10 +1675,10 @@
         <v>4480</v>
       </c>
       <c r="B68">
-        <v>2.78061224489795</v>
+        <v>2.78</v>
       </c>
       <c r="C68" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1569,10 +1686,10 @@
         <v>2100</v>
       </c>
       <c r="B69">
-        <v>2.73597122302158</v>
+        <v>2.74</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1580,10 +1697,10 @@
         <v>2420</v>
       </c>
       <c r="B70">
-        <v>2.70699432892249</v>
+        <v>2.71</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1591,10 +1708,10 @@
         <v>1001</v>
       </c>
       <c r="B71">
-        <v>2.64393939393939</v>
+        <v>2.64</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1602,10 +1719,10 @@
         <v>1410</v>
       </c>
       <c r="B72">
-        <v>2.56991869918699</v>
+        <v>2.57</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1613,10 +1730,10 @@
         <v>1000</v>
       </c>
       <c r="B73">
-        <v>2.3192307692307601</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1627,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1638,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1651,495 +1768,755 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621D1986-EE77-40BD-96CB-454FC5200FFF}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="132.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.47</v>
+      </c>
+      <c r="C2">
+        <v>4.7350000000000003</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.19</v>
+      </c>
+      <c r="C3">
+        <v>4.6959999999999997</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>4.5709999999999997</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>3.86</v>
+      </c>
+      <c r="C5">
+        <v>4.5590000000000002</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>3.06</v>
+      </c>
+      <c r="C6">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>3.62</v>
+      </c>
+      <c r="C7">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>3.13</v>
+      </c>
+      <c r="C8">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3.7</v>
+      </c>
+      <c r="C9">
+        <v>4.5090000000000003</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>3.39</v>
+      </c>
+      <c r="C10">
+        <v>4.4820000000000002</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>3.36</v>
+      </c>
+      <c r="C11">
+        <v>4.4809999999999999</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>2.72</v>
+      </c>
+      <c r="C12">
+        <v>4.4770000000000003</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>3.19</v>
+      </c>
+      <c r="C13">
+        <v>4.476</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>3.09</v>
+      </c>
+      <c r="C14">
+        <v>4.4329999999999998</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>3.51</v>
+      </c>
+      <c r="C15">
+        <v>4.3849999999999998</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>3.01</v>
+      </c>
+      <c r="C16">
+        <v>4.3559999999999999</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>3.6</v>
+      </c>
+      <c r="C17">
+        <v>4.3470000000000004</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>3.27</v>
+      </c>
+      <c r="C18">
+        <v>4.1559999999999997</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
         <v>101</v>
       </c>
-      <c r="B5">
-        <v>3.8578431372548998</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3.5</v>
+      </c>
+      <c r="C19">
+        <v>4.1509999999999998</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
         <v>74</v>
       </c>
-      <c r="B6">
-        <v>3.6967213114753998</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>2.58</v>
+      </c>
+      <c r="C20">
+        <v>4.1349999999999998</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3.55</v>
+      </c>
+      <c r="C21">
+        <v>4.0270000000000001</v>
+      </c>
+      <c r="D21" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7">
-        <v>3.65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8">
-        <v>3.6212121212121202</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9">
-        <v>3.6063829787234001</v>
-      </c>
-      <c r="C9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10">
-        <v>3.6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11">
-        <v>3.5505617977527999</v>
-      </c>
-      <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>3.35</v>
+      </c>
+      <c r="C22">
+        <v>4.0049999999999999</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>3.14</v>
+      </c>
+      <c r="C23">
+        <v>3.992</v>
+      </c>
+      <c r="D23" t="s">
         <v>112</v>
       </c>
-      <c r="B12">
-        <v>3.5122950819672099</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13">
-        <v>3.5016393442622902</v>
-      </c>
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14">
-        <v>3.4942528735632101</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15">
-        <v>3.4720496894409898</v>
-      </c>
-      <c r="C15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16">
-        <v>3.38636363636363</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17">
-        <v>3.3636363636363602</v>
-      </c>
-      <c r="C17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18">
-        <v>3.35853658536585</v>
-      </c>
-      <c r="C18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>3.11</v>
+      </c>
+      <c r="C24">
+        <v>3.97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>3.23</v>
+      </c>
+      <c r="C25">
+        <v>3.9020000000000001</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>3.8679999999999999</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>3.49</v>
+      </c>
+      <c r="C27">
+        <v>3.8170000000000002</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <v>3.61</v>
+      </c>
+      <c r="C28">
+        <v>3.528</v>
+      </c>
+      <c r="D28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>2.88</v>
+      </c>
+      <c r="C29">
+        <v>3.4649999999999999</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>2.9</v>
+      </c>
+      <c r="C30">
+        <v>3.339</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>2.59</v>
+      </c>
+      <c r="C31">
+        <v>3.0710000000000002</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>3.28</v>
+      </c>
+      <c r="C32">
+        <v>2.9929999999999999</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
         <v>70</v>
       </c>
-      <c r="B19">
-        <v>3.35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20">
-        <v>3.2775510204081599</v>
-      </c>
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21">
-        <v>3.26781519185591</v>
-      </c>
-      <c r="C21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22">
-        <v>3.23041474654377</v>
-      </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23">
-        <v>3.1916167664670598</v>
-      </c>
-      <c r="C23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24">
-        <v>3.1863117870722402</v>
-      </c>
-      <c r="C24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25">
-        <v>3.1418918918918899</v>
-      </c>
-      <c r="C25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26">
-        <v>3.1293103448275801</v>
-      </c>
-      <c r="C26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27">
-        <v>3.1071428571428501</v>
-      </c>
-      <c r="C27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28">
-        <v>3.0880149812734001</v>
-      </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29">
-        <v>3.0611596505162799</v>
-      </c>
-      <c r="C29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30">
-        <v>3.0066909975669098</v>
-      </c>
-      <c r="C30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31">
-        <v>2.99640287769784</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32">
-        <v>2.8980000000000001</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33">
-        <v>2.875</v>
-      </c>
-      <c r="C33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="B34">
-        <v>2.7193500738552401</v>
-      </c>
-      <c r="C34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="B35">
-        <v>2.5902578796561602</v>
-      </c>
-      <c r="C35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="B36">
-        <v>2.5828116107000501</v>
-      </c>
-      <c r="C36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
         <v>0</v>
       </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="B40">
+        <v>3.36</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
-      <c r="C40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="B43">
+        <v>3.65</v>
+      </c>
+      <c r="C43">
         <v>0</v>
       </c>
-      <c r="C43" t="s">
-        <v>16</v>
+      <c r="D43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C44">
-    <sortCondition descending="1" ref="B1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E43">
+    <sortCondition descending="1" ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InitialResultsv2.xlsx
+++ b/InitialResultsv2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b75b1c6a55d49cb/College/JuniorYear/CS5140/Grade Data Mining Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\North\OneDrive\College\JuniorYear\CS5140\Grade Data Mining Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{2895182A-7C7B-46C6-B047-613BEA9930D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A85F0232-B279-4E71-8B02-8B74F8FEC351}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{2895182A-7C7B-46C6-B047-613BEA9930D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9C2BBD5B-17B3-4901-93C0-53F2751F79D4}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="2850" windowWidth="26100" windowHeight="16545" xr2:uid="{C2498C7F-B6B4-44DE-9D2A-2A6F06A73C51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{C2498C7F-B6B4-44DE-9D2A-2A6F06A73C51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,6 +621,1260 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Feedback</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.5"/>
+            <c:backward val="0.5"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.5802482097145264"/>
+                  <c:y val="0.42994867057424835"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>3.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.49</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2.7189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.548</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.335</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3130000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.081</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.032</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.889</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.829</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.756</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.085</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74BC-4063-AB3F-0A2C03061D2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="962360800"/>
+        <c:axId val="962360472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="962360800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>GPA</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Given</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="962360472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="962360472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Feedback</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Received</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="962360800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD86026-8665-4965-9F4D-919424FB3BB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -922,7 +2176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFCC70A-CE65-4693-B181-9EEFBEA53E63}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1770,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621D1986-EE77-40BD-96CB-454FC5200FFF}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,7 +3062,7 @@
         <v>3.47</v>
       </c>
       <c r="C2">
-        <v>4.7350000000000003</v>
+        <v>2.7189999999999999</v>
       </c>
       <c r="D2" t="s">
         <v>102</v>
@@ -1825,7 +3079,7 @@
         <v>3.19</v>
       </c>
       <c r="C3">
-        <v>4.6959999999999997</v>
+        <v>2.677</v>
       </c>
       <c r="D3" t="s">
         <v>66</v>
@@ -1836,53 +3090,53 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3.86</v>
       </c>
       <c r="C4">
-        <v>4.5709999999999997</v>
+        <v>2.548</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>3.86</v>
+        <v>3.06</v>
       </c>
       <c r="C5">
-        <v>4.5590000000000002</v>
+        <v>2.54</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>3.06</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4.5579999999999998</v>
+        <v>2.532</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1893,7 +3147,7 @@
         <v>3.62</v>
       </c>
       <c r="C7">
-        <v>4.5330000000000004</v>
+        <v>2.5049999999999999</v>
       </c>
       <c r="D7" t="s">
         <v>81</v>
@@ -1910,7 +3164,7 @@
         <v>3.13</v>
       </c>
       <c r="C8">
-        <v>4.5250000000000004</v>
+        <v>2.5049999999999999</v>
       </c>
       <c r="D8" t="s">
         <v>94</v>
@@ -1927,7 +3181,7 @@
         <v>3.7</v>
       </c>
       <c r="C9">
-        <v>4.5090000000000003</v>
+        <v>2.4929999999999999</v>
       </c>
       <c r="D9" t="s">
         <v>60</v>
@@ -1944,7 +3198,7 @@
         <v>3.39</v>
       </c>
       <c r="C10">
-        <v>4.4820000000000002</v>
+        <v>2.448</v>
       </c>
       <c r="D10" t="s">
         <v>96</v>
@@ -1955,36 +3209,36 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B11">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="C11">
-        <v>4.4809999999999999</v>
+        <v>2.4409999999999998</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>2.72</v>
+        <v>3.36</v>
       </c>
       <c r="C12">
-        <v>4.4770000000000003</v>
+        <v>2.4350000000000001</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1995,7 +3249,7 @@
         <v>3.19</v>
       </c>
       <c r="C13">
-        <v>4.476</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="D13" t="s">
         <v>77</v>
@@ -2012,7 +3266,7 @@
         <v>3.09</v>
       </c>
       <c r="C14">
-        <v>4.4329999999999998</v>
+        <v>2.3860000000000001</v>
       </c>
       <c r="D14" t="s">
         <v>106</v>
@@ -2029,7 +3283,7 @@
         <v>3.51</v>
       </c>
       <c r="C15">
-        <v>4.3849999999999998</v>
+        <v>2.335</v>
       </c>
       <c r="D15" t="s">
         <v>92</v>
@@ -2046,7 +3300,7 @@
         <v>3.01</v>
       </c>
       <c r="C16">
-        <v>4.3559999999999999</v>
+        <v>2.3130000000000002</v>
       </c>
       <c r="D16" t="s">
         <v>79</v>
@@ -2063,7 +3317,7 @@
         <v>3.6</v>
       </c>
       <c r="C17">
-        <v>4.3470000000000004</v>
+        <v>2.29</v>
       </c>
       <c r="D17" t="s">
         <v>56</v>
@@ -2080,7 +3334,7 @@
         <v>3.27</v>
       </c>
       <c r="C18">
-        <v>4.1559999999999997</v>
+        <v>2.081</v>
       </c>
       <c r="D18" t="s">
         <v>100</v>
@@ -2097,7 +3351,7 @@
         <v>3.5</v>
       </c>
       <c r="C19">
-        <v>4.1509999999999998</v>
+        <v>2.0510000000000002</v>
       </c>
       <c r="D19" t="s">
         <v>73</v>
@@ -2114,7 +3368,7 @@
         <v>2.58</v>
       </c>
       <c r="C20">
-        <v>4.1349999999999998</v>
+        <v>2.032</v>
       </c>
       <c r="D20" t="s">
         <v>90</v>
@@ -2131,7 +3385,7 @@
         <v>3.55</v>
       </c>
       <c r="C21">
-        <v>4.0270000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="D21" t="s">
         <v>75</v>
@@ -2148,7 +3402,7 @@
         <v>3.35</v>
       </c>
       <c r="C22">
-        <v>4.0049999999999999</v>
+        <v>1.889</v>
       </c>
       <c r="D22" t="s">
         <v>51</v>
@@ -2165,7 +3419,7 @@
         <v>3.14</v>
       </c>
       <c r="C23">
-        <v>3.992</v>
+        <v>1.8660000000000001</v>
       </c>
       <c r="D23" t="s">
         <v>112</v>
@@ -2182,7 +3436,7 @@
         <v>3.11</v>
       </c>
       <c r="C24">
-        <v>3.97</v>
+        <v>1.829</v>
       </c>
       <c r="D24" t="s">
         <v>104</v>
@@ -2199,7 +3453,7 @@
         <v>3.23</v>
       </c>
       <c r="C25">
-        <v>3.9020000000000001</v>
+        <v>1.756</v>
       </c>
       <c r="D25" t="s">
         <v>57</v>
@@ -2216,7 +3470,7 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>3.8679999999999999</v>
+        <v>1.7270000000000001</v>
       </c>
       <c r="D26" t="s">
         <v>71</v>
@@ -2233,7 +3487,7 @@
         <v>3.49</v>
       </c>
       <c r="C27">
-        <v>3.8170000000000002</v>
+        <v>1.651</v>
       </c>
       <c r="D27" t="s">
         <v>64</v>
@@ -2250,7 +3504,7 @@
         <v>3.61</v>
       </c>
       <c r="C28">
-        <v>3.528</v>
+        <v>1.3129999999999999</v>
       </c>
       <c r="D28" t="s">
         <v>110</v>
@@ -2267,7 +3521,7 @@
         <v>2.88</v>
       </c>
       <c r="C29">
-        <v>3.4649999999999999</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
@@ -2284,7 +3538,7 @@
         <v>2.9</v>
       </c>
       <c r="C30">
-        <v>3.339</v>
+        <v>1.085</v>
       </c>
       <c r="D30" t="s">
         <v>55</v>
@@ -2301,7 +3555,7 @@
         <v>2.59</v>
       </c>
       <c r="C31">
-        <v>3.0710000000000002</v>
+        <v>0.745</v>
       </c>
       <c r="D31" t="s">
         <v>62</v>
@@ -2318,7 +3572,7 @@
         <v>3.28</v>
       </c>
       <c r="C32">
-        <v>2.9929999999999999</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D32" t="s">
         <v>69</v>
@@ -2515,9 +3769,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E44">
     <sortCondition descending="1" ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/InitialResultsv2.xlsx
+++ b/InitialResultsv2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\North\OneDrive\College\JuniorYear\CS5140\Grade Data Mining Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{2895182A-7C7B-46C6-B047-613BEA9930D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9C2BBD5B-17B3-4901-93C0-53F2751F79D4}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{2895182A-7C7B-46C6-B047-613BEA9930D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A0887B05-8A7F-482D-A026-A0D275E38ABC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{C2498C7F-B6B4-44DE-9D2A-2A6F06A73C51}"/>
+    <workbookView minimized="1" xWindow="43590" yWindow="2505" windowWidth="26100" windowHeight="16545" activeTab="1" xr2:uid="{C2498C7F-B6B4-44DE-9D2A-2A6F06A73C51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -637,37 +637,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -720,17 +690,49 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0.5"/>
             <c:backward val="0.5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.5802482097145264"/>
-                  <c:y val="0.42994867057424835"/>
+                  <c:x val="-0.56200497571548413"/>
+                  <c:y val="0.36932240592467308"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 0.5916x + 0.1113</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>R² = 0.1318</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -987,6 +989,7 @@
         <c:axId val="962360800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0999999999999996"/>
           <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1025,14 +1028,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>GPA</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
                   <a:t> Given</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1147,14 +1150,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Feedback</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
                   <a:t> Received</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2176,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFCC70A-CE65-4693-B181-9EEFBEA53E63}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3025,7 +3028,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3769,7 +3772,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E44">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E43">
     <sortCondition descending="1" ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InitialResultsv2.xlsx
+++ b/InitialResultsv2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\North\OneDrive\College\JuniorYear\CS5140\Grade Data Mining Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\North\OneDrive\College\JuniorYear\CS5140\GradeDataMiningProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{2895182A-7C7B-46C6-B047-613BEA9930D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A0887B05-8A7F-482D-A026-A0D275E38ABC}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{2895182A-7C7B-46C6-B047-613BEA9930D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E4102291-00B9-45D5-A625-78B4DC24E1C2}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="43590" yWindow="2505" windowWidth="26100" windowHeight="16545" activeTab="1" xr2:uid="{C2498C7F-B6B4-44DE-9D2A-2A6F06A73C51}"/>
+    <workbookView xWindow="11655" yWindow="1395" windowWidth="26100" windowHeight="16545" activeTab="1" xr2:uid="{C2498C7F-B6B4-44DE-9D2A-2A6F06A73C51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -770,97 +770,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.49</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>3.47</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="14">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>3.19</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.86</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="22">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>3.06</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.62</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.39</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.72</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.36</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.19</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.09</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.51</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="28">
                   <c:v>3.01</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.27</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.58</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.55</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.35</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.14</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.23</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.49</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.61</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.88</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.59</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -872,97 +872,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2.7189999999999999</c:v>
+                  <c:v>2.532</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.677</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2.548</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.54</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.532</c:v>
+                  <c:v>2.4929999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5049999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.5049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4929999999999999</c:v>
+                  <c:v>1.3129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.335</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.651</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>2.448</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.4409999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>2.4350000000000001</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.889</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.081</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.756</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.677</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>2.4300000000000002</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
+                  <c:v>1.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.829</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>2.3860000000000001</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.335</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>2.3130000000000002</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.081</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.0510000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.032</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.92</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.889</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.8660000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.829</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.756</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>1.7270000000000001</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.651</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.3129999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.2450000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>1.085</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.745</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.63400000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2179,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFCC70A-CE65-4693-B181-9EEFBEA53E63}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F42" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3020,6 +3020,7 @@
     <sortCondition descending="1" ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3028,7 +3029,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection sqref="A1:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3059,611 +3060,611 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>3.47</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>2.7189999999999999</v>
+        <v>2.532</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>3.19</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>2.677</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>3.86</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>2.548</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>3.06</v>
+        <v>3.86</v>
       </c>
       <c r="C5">
-        <v>2.54</v>
+        <v>2.548</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="C6">
-        <v>2.532</v>
+        <v>2.4929999999999999</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="C7">
-        <v>2.5049999999999999</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>3.13</v>
+        <v>3.62</v>
       </c>
       <c r="C8">
         <v>2.5049999999999999</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B9">
-        <v>3.7</v>
+        <v>3.61</v>
       </c>
       <c r="C9">
-        <v>2.4929999999999999</v>
+        <v>1.3129999999999999</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>3.39</v>
+        <v>3.6</v>
       </c>
       <c r="C10">
-        <v>2.448</v>
+        <v>2.29</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>2.72</v>
+        <v>3.55</v>
       </c>
       <c r="C11">
-        <v>2.4409999999999998</v>
+        <v>1.92</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B12">
-        <v>3.36</v>
+        <v>3.51</v>
       </c>
       <c r="C12">
-        <v>2.4350000000000001</v>
+        <v>2.335</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>3.19</v>
+        <v>3.5</v>
       </c>
       <c r="C13">
-        <v>2.4300000000000002</v>
+        <v>2.0510000000000002</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>3.09</v>
+        <v>3.49</v>
       </c>
       <c r="C14">
-        <v>2.3860000000000001</v>
+        <v>1.651</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B15">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="C15">
-        <v>2.335</v>
+        <v>2.7189999999999999</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>3.01</v>
+        <v>3.39</v>
       </c>
       <c r="C16">
-        <v>2.3130000000000002</v>
+        <v>2.448</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17">
-        <v>3.6</v>
+        <v>3.36</v>
       </c>
       <c r="C17">
-        <v>2.29</v>
+        <v>2.4350000000000001</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="C18">
-        <v>2.081</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="C19">
-        <v>2.0510000000000002</v>
+        <v>1.889</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>2.58</v>
+        <v>3.28</v>
       </c>
       <c r="C20">
-        <v>2.032</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B21">
-        <v>3.55</v>
+        <v>3.27</v>
       </c>
       <c r="C21">
-        <v>1.92</v>
+        <v>2.081</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>3.35</v>
+        <v>3.23</v>
       </c>
       <c r="C22">
-        <v>1.889</v>
+        <v>1.756</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>3.14</v>
+        <v>3.19</v>
       </c>
       <c r="C23">
-        <v>1.8660000000000001</v>
+        <v>2.677</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>3.11</v>
+        <v>3.19</v>
       </c>
       <c r="C24">
-        <v>1.829</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B25">
-        <v>3.23</v>
+        <v>3.14</v>
       </c>
       <c r="C25">
-        <v>1.756</v>
+        <v>1.8660000000000001</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="C26">
-        <v>1.7270000000000001</v>
+        <v>2.5049999999999999</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B27">
-        <v>3.49</v>
+        <v>3.11</v>
       </c>
       <c r="C27">
-        <v>1.651</v>
+        <v>1.829</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B28">
-        <v>3.61</v>
+        <v>3.09</v>
       </c>
       <c r="C28">
-        <v>1.3129999999999999</v>
+        <v>2.3860000000000001</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="C29">
-        <v>1.2450000000000001</v>
+        <v>2.54</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>2.9</v>
+        <v>3.01</v>
       </c>
       <c r="C30">
-        <v>1.085</v>
+        <v>2.3130000000000002</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>2.59</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>0.745</v>
+        <v>1.7270000000000001</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>3.28</v>
+        <v>2.9</v>
       </c>
       <c r="C32">
-        <v>0.63400000000000001</v>
+        <v>1.085</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>2.72</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>2.4409999999999998</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.745</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>2.032</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E37" t="s">
         <v>53</v>
@@ -3671,7 +3672,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3688,7 +3689,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3705,16 +3706,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B40">
-        <v>3.36</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
         <v>53</v>
@@ -3722,7 +3723,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3739,7 +3740,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3756,16 +3757,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
         <v>53</v>
@@ -3773,9 +3774,10 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E43">
-    <sortCondition descending="1" ref="C1"/>
+    <sortCondition descending="1" ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>